--- a/veri3.xlsx
+++ b/veri3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\BuyumeTahmin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016B1E14-E753-4792-A8E2-3B794EA9176B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4B2FCF-2984-4F15-B79D-3673F2534D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -86,6 +86,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="P81" sqref="P81"/>
+      <selection activeCell="N95" sqref="N95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,7 +1210,7 @@
         <v>45382</v>
       </c>
       <c r="B102">
-        <v>204.23817271600601</v>
+        <v>204.3</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1217,7 +1218,15 @@
         <v>45473</v>
       </c>
       <c r="B103">
-        <v>219.51010340005999</v>
+        <v>219.1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>45565</v>
+      </c>
+      <c r="B104">
+        <v>242.4</v>
       </c>
     </row>
   </sheetData>

--- a/veri3.xlsx
+++ b/veri3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\BuyumeTahmin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuyumeTahmin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2ADDD4-35D2-48DA-AD9F-95005DE14292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96887596-8262-457A-83F5-B70264A769C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G105" sqref="G105"/>
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,6 +1269,14 @@
         <v>249.2</v>
       </c>
     </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B110">
+        <v>209.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/veri3.xlsx
+++ b/veri3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuyumeTahmin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96887596-8262-457A-83F5-B70264A769C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05308C7B-CECB-4673-AC83-A4705EAB102D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="20970" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,14 +1269,6 @@
         <v>249.2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
-        <v>45747</v>
-      </c>
-      <c r="B110">
-        <v>209.3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
